--- a/Material Properties Master.xlsx
+++ b/Material Properties Master.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thoma\Documents\Engineering\Part B\B3\Simulation\ML Model 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE44CD6-2819-41D5-AE4C-E357402C639A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17059FD2-2D30-420E-85A3-4D8E88259593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Density</t>
   </si>
@@ -173,6 +173,39 @@
   </si>
   <si>
     <t>Ti</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>LSOCe</t>
+  </si>
+  <si>
+    <t>0.000694,0.000173,0.000095</t>
+  </si>
+  <si>
+    <t>71,14,8</t>
+  </si>
+  <si>
+    <t>174.97,28.09,15.999</t>
+  </si>
+  <si>
+    <t>0.76402,0.061329,0.17465</t>
+  </si>
+  <si>
+    <t>YAPCe</t>
+  </si>
+  <si>
+    <t>88.91,26.982,15.999</t>
+  </si>
+  <si>
+    <t>39,13,8</t>
+  </si>
+  <si>
+    <t>0.000379,0.000166,0.000095</t>
+  </si>
+  <si>
+    <t>0.54250,0.16464,0.29286</t>
   </si>
 </sst>
 </file>
@@ -1013,10 +1046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1406,6 +1439,93 @@
       </c>
       <c r="I13">
         <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14">
+        <v>183.84</v>
+      </c>
+      <c r="C14">
+        <v>74</v>
+      </c>
+      <c r="D14">
+        <v>7.27E-4</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>19250</v>
+      </c>
+      <c r="G14">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="H14">
+        <v>3695</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15">
+        <v>7400</v>
+      </c>
+      <c r="G15">
+        <v>84.36</v>
+      </c>
+      <c r="H15">
+        <v>2323</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16">
+        <v>5370</v>
+      </c>
+      <c r="G16">
+        <v>144.99</v>
+      </c>
+      <c r="H16">
+        <v>1875</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
